--- a/Bellevue University/Courses/DSC520/DSC520_Grades.xlsx
+++ b/Bellevue University/Courses/DSC520/DSC520_Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safar\Documents\GitHub\Safarie1103\Bellevue University\Courses\DSC520\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A56832A-B809-4D2D-9BB0-6996EC1EF51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609B7B8-628F-44FD-892B-74189B5E3B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28800" windowHeight="13860" xr2:uid="{8DBFA4B6-8248-4EC2-B5A9-B40D38B2DDF7}"/>
+    <workbookView xWindow="4950" yWindow="2760" windowWidth="23040" windowHeight="8955" xr2:uid="{8DBFA4B6-8248-4EC2-B5A9-B40D38B2DDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA7519-6E55-4231-B686-D956A27083C1}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -635,11 +635,11 @@
         <v>60</v>
       </c>
       <c r="B23" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>87.755102040816325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,13 +649,13 @@
       </c>
       <c r="B24" s="2">
         <f>SUM(B2:B23)</f>
-        <v>585</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>(SUM(B2:B23)/SUM(A2:A23))*100</f>
-        <v>100</v>
+        <v>89.743589743589752</v>
       </c>
       <c r="B25" s="1"/>
     </row>
